--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>small_walkers.mp4</t>
+    <t>lenin_static3_darked_10fps.mp4</t>
   </si>
   <si>
     <t>frame</t>
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,10 +373,1914 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.09898713250910639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.2039734851702797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.1529801138777099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.08098947205290521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.07798986197687167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.119984403041341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.08698869220497227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.09298791235703932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.07798986197687167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.1499805038016763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.04799376121653646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.119984403041341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.08098947205290521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.1049863526611734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.1229840131173746</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.07798986197687167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>4.165048632552105</v>
+      <c r="C18">
+        <v>0.07499025190083815</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.1169847929653076</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.1049863526611734</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.09298791235703932</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.1259836231934081</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.08998830228100579</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.1019867425851399</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.07199064182480462</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.09598752243307285</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.113985182889274</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.113985182889274</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.04499415114050293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.1349824534215087</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.09598752243307285</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.06299181159670404</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.1529801138777099</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.07199064182480462</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.119984403041341</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.06299181159670404</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.1169847929653076</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.08698869220497227</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.08398908212893874</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.1889754347901122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.04499415114050286</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.1259836231934081</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0.1349824534215087</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.113985182889274</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0.05999220152067057</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0.1319828433454752</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0.1289832332694416</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0.02699649068430176</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0.119984403041341</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>0.1829762146380451</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>0.1169847929653075</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>0.1859758247140786</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>0.3839500897322913</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>14.38612992465679</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>0.3899493098843584</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>0.02999610076033522</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>0.1859758247140786</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>0.01799766045620111</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>0.1409816735735757</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>0.1949746549421792</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>0.1859758247140786</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>0.1979742650182127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>0.119984403041341</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>0.09598752243307285</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>0.1559797239537433</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>0.03599532091240228</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>0.09898713250910639</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>0.1889754347901122</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>0.01499805038016758</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>0.233969585930615</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>0.2039734851702798</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>0.7798986197687168</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>0.3329567184397214</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>0.2129723153983804</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>0.02399688060826816</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>0.09898713250910639</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>0.1229840131173746</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>0.1229840131173746</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <v>0.2189715355504474</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>0.06599142167273757</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>0.1469808937256428</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <v>0.09898713250910639</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <v>0.0689910317487711</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>0.1529801138777099</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <v>0.005999220152067057</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>0.164978554181844</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>0.02999610076033529</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>0.1469808937256428</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>0.09598752243307285</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>0.1469808937256428</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>0.05999220152067051</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>0.1259836231934081</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>0.2099727053223469</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>0.05399298136860352</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>0.3599532091240232</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>1.5567976294614</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>0.2819633471471515</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>0.09298791235703932</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>0.1319828433454752</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <v>0.04499415114050293</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>0.08698869220497227</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>0.1439812836496093</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <v>0.1259836231934081</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>0.05999220152067057</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <v>0.08998830228100579</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>0.08398908212893874</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>0.1259836231934081</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>0.1319828433454752</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>0.002999610076033529</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111">
+        <v>109</v>
+      </c>
+      <c r="C111">
+        <v>0.1379820634975422</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112">
+        <v>110</v>
+      </c>
+      <c r="C112">
+        <v>0.113985182889274</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113">
+        <v>111</v>
+      </c>
+      <c r="C113">
+        <v>0.09598752243307285</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114">
+        <v>112</v>
+      </c>
+      <c r="C114">
+        <v>0.119984403041341</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115">
+        <v>113</v>
+      </c>
+      <c r="C115">
+        <v>0.07199064182480462</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116">
+        <v>114</v>
+      </c>
+      <c r="C116">
+        <v>0.2399688060826821</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117">
+        <v>115</v>
+      </c>
+      <c r="C117">
+        <v>0.008998830228100586</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118">
+        <v>116</v>
+      </c>
+      <c r="C118">
+        <v>0.04799376121653646</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119">
+        <v>117</v>
+      </c>
+      <c r="C119">
+        <v>0.1169847929653076</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120">
+        <v>118</v>
+      </c>
+      <c r="C120">
+        <v>0.1739773844099445</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121">
+        <v>119</v>
+      </c>
+      <c r="C121">
+        <v>0.03599532091240228</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122">
+        <v>120</v>
+      </c>
+      <c r="C122">
+        <v>0.1469808937256428</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123">
+        <v>121</v>
+      </c>
+      <c r="C123">
+        <v>0.09898713250910639</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124">
+        <v>122</v>
+      </c>
+      <c r="C124">
+        <v>0.1499805038016763</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125">
+        <v>123</v>
+      </c>
+      <c r="C125">
+        <v>0.0209972705322347</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126">
+        <v>124</v>
+      </c>
+      <c r="C126">
+        <v>0.1529801138777099</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <v>0.07798986197687167</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <v>0.1049863526611734</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <v>0.08998830228100579</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130">
+        <v>128</v>
+      </c>
+      <c r="C130">
+        <v>0.1319828433454752</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131">
+        <v>129</v>
+      </c>
+      <c r="C131">
+        <v>0.07499025190083815</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132">
+        <v>130</v>
+      </c>
+      <c r="C132">
+        <v>0.03299571083636882</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133">
+        <v>131</v>
+      </c>
+      <c r="C133">
+        <v>0.1499805038016763</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134">
+        <v>132</v>
+      </c>
+      <c r="C134">
+        <v>0.06299181159670404</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135">
+        <v>133</v>
+      </c>
+      <c r="C135">
+        <v>0.1349824534215087</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136">
+        <v>134</v>
+      </c>
+      <c r="C136">
+        <v>0.06299181159670404</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137">
+        <v>135</v>
+      </c>
+      <c r="C137">
+        <v>0.1499805038016763</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138">
+        <v>136</v>
+      </c>
+      <c r="C138">
+        <v>0.02399688060826823</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139">
+        <v>137</v>
+      </c>
+      <c r="C139">
+        <v>0.1349824534215087</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140">
+        <v>138</v>
+      </c>
+      <c r="C140">
+        <v>0.119984403041341</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141">
+        <v>139</v>
+      </c>
+      <c r="C141">
+        <v>0.1049863526611734</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142">
+        <v>140</v>
+      </c>
+      <c r="C142">
+        <v>0.002999610076033529</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143">
+        <v>141</v>
+      </c>
+      <c r="C143">
+        <v>0.1619789441058104</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144">
+        <v>142</v>
+      </c>
+      <c r="C144">
+        <v>0.08698869220497227</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145">
+        <v>143</v>
+      </c>
+      <c r="C145">
+        <v>0.1469808937256428</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146">
+        <v>144</v>
+      </c>
+      <c r="C146">
+        <v>0.01799766045620111</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147">
+        <v>145</v>
+      </c>
+      <c r="C147">
+        <v>0.1889754347901122</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148">
+        <v>146</v>
+      </c>
+      <c r="C148">
+        <v>0.3539539889719561</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149">
+        <v>147</v>
+      </c>
+      <c r="C149">
+        <v>4.364432660628781</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150">
+        <v>148</v>
+      </c>
+      <c r="C150">
+        <v>0.3719516494281572</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151">
+        <v>149</v>
+      </c>
+      <c r="C151">
+        <v>0.02999610076033522</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152">
+        <v>150</v>
+      </c>
+      <c r="C152">
+        <v>0.170977774333911</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153">
+        <v>151</v>
+      </c>
+      <c r="C153">
+        <v>0.04199454106446941</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154">
+        <v>152</v>
+      </c>
+      <c r="C154">
+        <v>0.1529801138777099</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155">
+        <v>153</v>
+      </c>
+      <c r="C155">
+        <v>0.0689910317487711</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156">
+        <v>154</v>
+      </c>
+      <c r="C156">
+        <v>0.07499025190083815</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157">
+        <v>155</v>
+      </c>
+      <c r="C157">
+        <v>0.1409816735735757</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <v>0.0209972705322347</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159">
+        <v>157</v>
+      </c>
+      <c r="C159">
+        <v>0.1559797239537433</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160">
+        <v>158</v>
+      </c>
+      <c r="C160">
+        <v>0.1409816735735757</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161">
+        <v>159</v>
+      </c>
+      <c r="C161">
+        <v>0.01499805038016764</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162">
+        <v>160</v>
+      </c>
+      <c r="C162">
+        <v>0.0689910317487711</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163">
+        <v>161</v>
+      </c>
+      <c r="C163">
+        <v>0.1919750448661457</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164">
+        <v>162</v>
+      </c>
+      <c r="C164">
+        <v>0.03899493098843587</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165">
+        <v>163</v>
+      </c>
+      <c r="C165">
+        <v>0.03299571083636882</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166">
+        <v>164</v>
+      </c>
+      <c r="C166">
+        <v>0.2069730952463133</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167">
+        <v>165</v>
+      </c>
+      <c r="C167">
+        <v>0.03299571083636875</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168">
+        <v>166</v>
+      </c>
+      <c r="C168">
+        <v>0.1889754347901122</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169">
+        <v>167</v>
+      </c>
+      <c r="C169">
+        <v>0.02999610076033529</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170">
+        <v>168</v>
+      </c>
+      <c r="C170">
+        <v>0.1529801138777099</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171">
+        <v>169</v>
+      </c>
+      <c r="C171">
+        <v>0.05699259144463698</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172">
+        <v>170</v>
+      </c>
+      <c r="C172">
+        <v>0.1829762146380451</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173">
+        <v>171</v>
+      </c>
+      <c r="C173">
+        <v>0.08998830228100579</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174">
+        <v>172</v>
+      </c>
+      <c r="C174">
+        <v>0.113985182889274</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175">
+        <v>173</v>
+      </c>
+      <c r="C175">
+        <v>0.01199844030413411</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176">
+        <v>174</v>
+      </c>
+      <c r="C176">
+        <v>0.227970365778548</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177">
+        <v>175</v>
+      </c>
+      <c r="C177">
+        <v>0.233969585930615</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178">
+        <v>176</v>
+      </c>
+      <c r="C178">
+        <v>0.695909537639778</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179">
+        <v>177</v>
+      </c>
+      <c r="C179">
+        <v>0.290962177375252</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180">
+        <v>178</v>
+      </c>
+      <c r="C180">
+        <v>0.3119594479074867</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181">
+        <v>179</v>
+      </c>
+      <c r="C181">
+        <v>1.271834672238215</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182">
+        <v>180</v>
+      </c>
+      <c r="C182">
+        <v>0.3059602277554196</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183">
+        <v>181</v>
+      </c>
+      <c r="C183">
+        <v>0.1679781642578775</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184">
+        <v>182</v>
+      </c>
+      <c r="C184">
+        <v>0.0479937612165364</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185">
+        <v>183</v>
+      </c>
+      <c r="C185">
+        <v>0.1979742650182127</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186">
+        <v>184</v>
+      </c>
+      <c r="C186">
+        <v>0.01499805038016764</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187">
+        <v>185</v>
+      </c>
+      <c r="C187">
+        <v>0.1019867425851399</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="B188">
+        <v>186</v>
+      </c>
+      <c r="C188">
+        <v>0.1379820634975422</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="B189">
+        <v>187</v>
+      </c>
+      <c r="C189">
+        <v>0.05999220152067057</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="B190">
+        <v>188</v>
+      </c>
+      <c r="C190">
+        <v>0.170977774333911</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="B191">
+        <v>189</v>
+      </c>
+      <c r="C191">
+        <v>0.07798986197687167</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192">
+        <v>190</v>
+      </c>
+      <c r="C192">
+        <v>0.1799766045620116</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193">
+        <v>191</v>
+      </c>
+      <c r="C193">
+        <v>0.0689910317487711</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194">
+        <v>192</v>
+      </c>
+      <c r="C194">
+        <v>0.113985182889274</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195">
+        <v>193</v>
+      </c>
+      <c r="C195">
+        <v>0.08098947205290521</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196">
+        <v>194</v>
+      </c>
+      <c r="C196">
+        <v>0.113985182889274</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197">
+        <v>195</v>
+      </c>
+      <c r="C197">
+        <v>0.09298791235703932</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198">
+        <v>196</v>
+      </c>
+      <c r="C198">
+        <v>0.1109855728132405</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199">
+        <v>197</v>
+      </c>
+      <c r="C199">
+        <v>0.08098947205290521</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200">
+        <v>198</v>
+      </c>
+      <c r="C200">
+        <v>0.170977774333911</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201">
+        <v>199</v>
+      </c>
+      <c r="C201">
+        <v>0.1109855728132404</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202">
+        <v>200</v>
+      </c>
+      <c r="C202">
+        <v>0.3659524292760902</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203">
+        <v>201</v>
+      </c>
+      <c r="C203">
+        <v>2.096727443147435</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204">
+        <v>202</v>
+      </c>
+      <c r="C204">
+        <v>0.3089598378314532</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205">
+        <v>203</v>
+      </c>
+      <c r="C205">
+        <v>0.07499025190083815</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206">
+        <v>204</v>
+      </c>
+      <c r="C206">
+        <v>0.1019867425851399</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207">
+        <v>205</v>
+      </c>
+      <c r="C207">
+        <v>0.1169847929653076</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208">
+        <v>206</v>
+      </c>
+      <c r="C208">
+        <v>0.1169847929653076</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209">
+        <v>207</v>
+      </c>
+      <c r="C209">
+        <v>0.07499025190083815</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210">
+        <v>208</v>
+      </c>
+      <c r="C210">
+        <v>0.107985962737207</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211">
+        <v>209</v>
+      </c>
+      <c r="C211">
+        <v>0.06299181159670404</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212">
+        <v>210</v>
+      </c>
+      <c r="C212">
+        <v>0.1319828433454752</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213">
+        <v>211</v>
+      </c>
+      <c r="C213">
+        <v>0.07499025190083815</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214">
+        <v>212</v>
+      </c>
+      <c r="C214">
+        <v>0.1169847929653076</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215">
+        <v>213</v>
+      </c>
+      <c r="C215">
+        <v>0.1259836231934081</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216">
+        <v>214</v>
+      </c>
+      <c r="C216">
+        <v>0.008998830228100586</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217">
+        <v>215</v>
+      </c>
+      <c r="C217">
+        <v>0.1499805038016763</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218">
+        <v>216</v>
+      </c>
+      <c r="C218">
+        <v>0.113985182889274</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219">
+        <v>217</v>
+      </c>
+      <c r="C219">
+        <v>0.07499025190083815</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220">
+        <v>218</v>
+      </c>
+      <c r="C220">
+        <v>0.1469808937256428</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221">
+        <v>219</v>
+      </c>
+      <c r="C221">
+        <v>0.01199844030413411</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222">
+        <v>220</v>
+      </c>
+      <c r="C222">
+        <v>0.1409816735735757</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223">
+        <v>221</v>
+      </c>
+      <c r="C223">
+        <v>0.113985182889274</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224">
+        <v>222</v>
+      </c>
+      <c r="C224">
+        <v>0.0689910317487711</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225">
+        <v>223</v>
+      </c>
+      <c r="C225">
+        <v>0.1619789441058104</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226">
+        <v>224</v>
+      </c>
+      <c r="C226">
+        <v>0.02399688060826823</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227">
+        <v>225</v>
+      </c>
+      <c r="C227">
+        <v>0.1409816735735757</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228">
+        <v>226</v>
+      </c>
+      <c r="C228">
+        <v>0.06299181159670404</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229">
+        <v>227</v>
+      </c>
+      <c r="C229">
+        <v>0.1259836231934081</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230">
+        <v>228</v>
+      </c>
+      <c r="C230">
+        <v>0.1289832332694416</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231">
+        <v>229</v>
+      </c>
+      <c r="C231">
+        <v>0.03599532091240235</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232">
+        <v>230</v>
+      </c>
+      <c r="C232">
+        <v>0.107985962737207</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233">
+        <v>231</v>
+      </c>
+      <c r="C233">
+        <v>0.1049863526611734</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234">
+        <v>232</v>
+      </c>
+      <c r="C234">
+        <v>0.1109855728132405</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235">
+        <v>233</v>
+      </c>
+      <c r="C235">
+        <v>0.09598752243307285</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236">
+        <v>234</v>
+      </c>
+      <c r="C236">
+        <v>0.07798986197687167</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237">
+        <v>235</v>
+      </c>
+      <c r="C237">
+        <v>0.1259836231934081</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238">
+        <v>236</v>
+      </c>
+      <c r="C238">
+        <v>0.09898713250910639</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239">
+        <v>237</v>
+      </c>
+      <c r="C239">
+        <v>0.005999220152067057</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240">
+        <v>238</v>
+      </c>
+      <c r="C240">
+        <v>0.09898713250910639</v>
       </c>
     </row>
   </sheetData>
